--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.3001451782324</v>
+        <v>251.015011096561</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.6912511345936</v>
+        <v>343.4498121828795</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.6659808509626</v>
+        <v>310.6714441430867</v>
       </c>
       <c r="AD2" t="n">
-        <v>199300.1451782323</v>
+        <v>251015.0110965609</v>
       </c>
       <c r="AE2" t="n">
-        <v>272691.2511345936</v>
+        <v>343449.8121828795</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.767036619511605e-06</v>
+        <v>3.989138227189919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.9837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>246665.9808509626</v>
+        <v>310671.4441430867</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.9051785892233</v>
+        <v>170.3533984251362</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.9514610590164</v>
+        <v>233.0850351866896</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.2045146001109</v>
+        <v>210.8397265654407</v>
       </c>
       <c r="AD3" t="n">
-        <v>135905.1785892233</v>
+        <v>170353.3984251362</v>
       </c>
       <c r="AE3" t="n">
-        <v>185951.4610590164</v>
+        <v>233085.0351866896</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.747502515266955e-06</v>
+        <v>5.402641018455479e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>168204.5146001109</v>
+        <v>210839.7265654407</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.3964710777868</v>
+        <v>154.9299422597203</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.7317632459924</v>
+        <v>211.9819820263148</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.0099949643223</v>
+        <v>191.7507191803643</v>
       </c>
       <c r="AD4" t="n">
-        <v>120396.4710777868</v>
+        <v>154929.9422597204</v>
       </c>
       <c r="AE4" t="n">
-        <v>164731.7632459924</v>
+        <v>211981.9820263148</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.93021400765181e-06</v>
+        <v>5.666049675095518e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.731481481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>149009.9949643222</v>
+        <v>191750.7191803642</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.2485455145042</v>
+        <v>200.3356632895188</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.5226414059505</v>
+        <v>274.1080926982898</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.8580244016644</v>
+        <v>247.9476010443697</v>
       </c>
       <c r="AD2" t="n">
-        <v>158248.5455145042</v>
+        <v>200335.6632895188</v>
       </c>
       <c r="AE2" t="n">
-        <v>216522.6414059505</v>
+        <v>274108.0926982898</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.291664065114223e-06</v>
+        <v>4.818872362371913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.554398148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>195858.0244016644</v>
+        <v>247947.6010443697</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.4279329581981</v>
+        <v>148.0976271782098</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.5653460774571</v>
+        <v>202.6337071113286</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.6229691887108</v>
+        <v>183.294630502875</v>
       </c>
       <c r="AD3" t="n">
-        <v>114427.9329581981</v>
+        <v>148097.6271782098</v>
       </c>
       <c r="AE3" t="n">
-        <v>156565.3460774571</v>
+        <v>202633.7071113285</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.058416915576484e-06</v>
+        <v>5.941369691009323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.748842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>141622.9691887108</v>
+        <v>183294.6305028751</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.7547465836391</v>
+        <v>141.7386501745775</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.5395304302421</v>
+        <v>193.9330742366973</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.0768103330879</v>
+        <v>175.4243738183809</v>
       </c>
       <c r="AD2" t="n">
-        <v>110754.7465836391</v>
+        <v>141738.6501745775</v>
       </c>
       <c r="AE2" t="n">
-        <v>151539.5304302421</v>
+        <v>193933.0742366973</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.153279763477367e-06</v>
+        <v>6.425636445527817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.449074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>137076.8103330879</v>
+        <v>175424.3738183809</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.4642965558606</v>
+        <v>146.4649072568179</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.6151003560275</v>
+        <v>200.3997476843619</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.6679749887651</v>
+        <v>181.2738770282357</v>
       </c>
       <c r="AD2" t="n">
-        <v>114464.2965558606</v>
+        <v>146464.9072568179</v>
       </c>
       <c r="AE2" t="n">
-        <v>156615.1003560275</v>
+        <v>200399.7476843619</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.182563841729981e-06</v>
+        <v>6.321083506619369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.02662037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>141667.9749887651</v>
+        <v>181273.8770282357</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.8506088284907</v>
+        <v>146.8512195294481</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.1436698503345</v>
+        <v>200.928317178669</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.1460985523876</v>
+        <v>181.7520005918582</v>
       </c>
       <c r="AD3" t="n">
-        <v>114850.6088284907</v>
+        <v>146851.219529448</v>
       </c>
       <c r="AE3" t="n">
-        <v>157143.6698503345</v>
+        <v>200928.317178669</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.17838806352783e-06</v>
+        <v>6.314772678208916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.032407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>142146.0985523876</v>
+        <v>181752.0005918582</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.6783749810532</v>
+        <v>146.9137110381684</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.6445001356209</v>
+        <v>201.0138208178309</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.4082531051843</v>
+        <v>181.8293438837036</v>
       </c>
       <c r="AD2" t="n">
-        <v>116678.3749810532</v>
+        <v>146913.7110381684</v>
       </c>
       <c r="AE2" t="n">
-        <v>159644.5001356209</v>
+        <v>201013.8208178309</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.02043784977345e-06</v>
+        <v>6.354253737485488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>144408.2531051844</v>
+        <v>181829.3438837036</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.1224304760281</v>
+        <v>216.7968446815261</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.2960381815904</v>
+        <v>296.6310072948922</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.603223309598</v>
+        <v>268.3209602829887</v>
       </c>
       <c r="AD2" t="n">
-        <v>166122.4304760281</v>
+        <v>216796.8446815261</v>
       </c>
       <c r="AE2" t="n">
-        <v>227296.0381815904</v>
+        <v>296631.0072948922</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.14434391085184e-06</v>
+        <v>4.58409587524377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.907407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>205603.223309598</v>
+        <v>268320.9602829887</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.9379679369619</v>
+        <v>149.8346985467227</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.6314425534422</v>
+        <v>205.0104447919069</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.4918803168133</v>
+        <v>185.4445356749921</v>
       </c>
       <c r="AD3" t="n">
-        <v>115937.9679369619</v>
+        <v>149834.6985467227</v>
       </c>
       <c r="AE3" t="n">
-        <v>158631.4425534422</v>
+        <v>205010.4447919069</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.027129232124559e-06</v>
+        <v>5.871096491176936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.737268518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>143491.8803168132</v>
+        <v>185444.5356749921</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.2860406258886</v>
+        <v>150.1827712356495</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.1076909623148</v>
+        <v>205.4866932007795</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.922676245962</v>
+        <v>185.8753316041409</v>
       </c>
       <c r="AD4" t="n">
-        <v>116286.0406258886</v>
+        <v>150182.7712356494</v>
       </c>
       <c r="AE4" t="n">
-        <v>159107.6909623148</v>
+        <v>205486.6932007795</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.021691240086955e-06</v>
+        <v>5.863168517146121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.748842592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>143922.676245962</v>
+        <v>185875.3316041409</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.5432431666036</v>
+        <v>153.720053071822</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.4596068254961</v>
+        <v>210.3265582628893</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.2410057530784</v>
+        <v>190.2532867375178</v>
       </c>
       <c r="AD2" t="n">
-        <v>116543.2431666036</v>
+        <v>153720.053071822</v>
       </c>
       <c r="AE2" t="n">
-        <v>159459.6068254961</v>
+        <v>210326.5582628893</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.86372573051009e-06</v>
+        <v>6.190596200479582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.652777777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>144241.0057530784</v>
+        <v>190253.2867375178</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7326993563002</v>
+        <v>161.7508914987629</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.1377585450844</v>
+        <v>221.3147056942108</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.3274180804875</v>
+        <v>200.1927407999592</v>
       </c>
       <c r="AD2" t="n">
-        <v>128732.6993563002</v>
+        <v>161750.8914987629</v>
       </c>
       <c r="AE2" t="n">
-        <v>176137.7585450844</v>
+        <v>221314.7056942108</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.784835174586826e-06</v>
+        <v>5.619886761241587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.559027777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>159327.4180804875</v>
+        <v>200192.7407999592</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.031727557473</v>
+        <v>142.9645788453641</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.5502639012938</v>
+        <v>195.6104439282226</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.1819580132178</v>
+        <v>176.9416577007507</v>
       </c>
       <c r="AD3" t="n">
-        <v>110031.727557473</v>
+        <v>142964.5788453642</v>
       </c>
       <c r="AE3" t="n">
-        <v>150550.2639012938</v>
+        <v>195610.4439282226</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.152039474598504e-06</v>
+        <v>6.165127568070618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.800925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>136181.9580132178</v>
+        <v>176941.6577007507</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.3974559199366</v>
+        <v>193.0193943275773</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.1486783739265</v>
+        <v>264.0976507335599</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.3786992449741</v>
+        <v>238.8925416110069</v>
       </c>
       <c r="AD2" t="n">
-        <v>151397.4559199366</v>
+        <v>193019.3943275773</v>
       </c>
       <c r="AE2" t="n">
-        <v>207148.6783739265</v>
+        <v>264097.6507335599</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.434704937849036e-06</v>
+        <v>5.050536043932188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.241898148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>187378.6992449741</v>
+        <v>238892.5416110069</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.9504244179979</v>
+        <v>146.3844489045842</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.5437537096797</v>
+        <v>200.2896610172639</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.7943147591908</v>
+        <v>181.1742968781379</v>
       </c>
       <c r="AD3" t="n">
-        <v>112950.4244179979</v>
+        <v>146384.4489045842</v>
       </c>
       <c r="AE3" t="n">
-        <v>154543.7537096797</v>
+        <v>200289.6610172639</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.092193844754172e-06</v>
+        <v>6.017335662210177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.75462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>139794.3147591908</v>
+        <v>181174.2968781379</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.5688531139736</v>
+        <v>241.9754835093763</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.7447121348607</v>
+        <v>331.0815317422881</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.8596027662876</v>
+        <v>299.4835750287509</v>
       </c>
       <c r="AD2" t="n">
-        <v>190568.8531139736</v>
+        <v>241975.4835093763</v>
       </c>
       <c r="AE2" t="n">
-        <v>260744.7121348607</v>
+        <v>331081.5317422881</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.887939142628371e-06</v>
+        <v>4.178190952477697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.60763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>235859.6027662876</v>
+        <v>299483.5750287509</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.2269174739061</v>
+        <v>156.5548983072223</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.2362607587572</v>
+        <v>214.2053185785072</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.2754667495539</v>
+        <v>193.7618636124886</v>
       </c>
       <c r="AD3" t="n">
-        <v>122226.9174739061</v>
+        <v>156554.8983072223</v>
       </c>
       <c r="AE3" t="n">
-        <v>167236.2607587572</v>
+        <v>214205.3185785072</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.87094909514182e-06</v>
+        <v>5.600382725552658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>151275.4667495539</v>
+        <v>193761.8636124886</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.4396102232824</v>
+        <v>152.7675910565986</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.0542998942527</v>
+        <v>209.0233577140028</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.5880649570284</v>
+        <v>189.0744618199631</v>
       </c>
       <c r="AD4" t="n">
-        <v>118439.6102232824</v>
+        <v>152767.5910565986</v>
       </c>
       <c r="AE4" t="n">
-        <v>162054.2998942527</v>
+        <v>209023.3577140028</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.983813396868282e-06</v>
+        <v>5.763671694274498e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.690972222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>146588.0649570284</v>
+        <v>189074.4618199631</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.8838477260422</v>
+        <v>149.1818333128169</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.9256370101325</v>
+        <v>204.1171657764961</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.6625586709707</v>
+        <v>184.6365099550868</v>
       </c>
       <c r="AD2" t="n">
-        <v>116883.8477260422</v>
+        <v>149181.8333128169</v>
       </c>
       <c r="AE2" t="n">
-        <v>159925.6370101325</v>
+        <v>204117.1657764961</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.130618270533255e-06</v>
+        <v>6.202885903310873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>144662.5586709707</v>
+        <v>184636.5099550868</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.8643875275125</v>
+        <v>148.1727519843634</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.5848136560096</v>
+        <v>202.7364961853804</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.499526177307</v>
+        <v>183.3876095319648</v>
       </c>
       <c r="AD3" t="n">
-        <v>107864.3875275125</v>
+        <v>148172.7519843634</v>
       </c>
       <c r="AE3" t="n">
-        <v>147584.8136560096</v>
+        <v>202736.4961853804</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.171681623924254e-06</v>
+        <v>6.264550109298809e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.945601851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>133499.526177307</v>
+        <v>183387.6095319648</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.1077246534115</v>
+        <v>143.4552412757122</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.3907347144834</v>
+        <v>196.2817899119231</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.7513382786234</v>
+        <v>177.5489313660071</v>
       </c>
       <c r="AD2" t="n">
-        <v>112107.7246534115</v>
+        <v>143455.2412757122</v>
       </c>
       <c r="AE2" t="n">
-        <v>153390.7347144834</v>
+        <v>196281.7899119231</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.167372202780214e-06</v>
+        <v>6.391693567394233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.287037037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>138751.3382786234</v>
+        <v>177548.9313660071</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9416915607287</v>
+        <v>148.1976511566137</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.4270726784405</v>
+        <v>202.7705643313271</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.0705239877737</v>
+        <v>183.4184262618774</v>
       </c>
       <c r="AD2" t="n">
-        <v>109941.6915607287</v>
+        <v>148197.6511566137</v>
       </c>
       <c r="AE2" t="n">
-        <v>150427.0726784405</v>
+        <v>202770.5643313271</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.096317205647822e-06</v>
+        <v>6.40041483247043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.721064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>136070.5239877737</v>
+        <v>183418.4262618774</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.8299348795941</v>
+        <v>168.4951309800101</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.797824010241</v>
+        <v>230.5424716872955</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.4971194030026</v>
+        <v>208.5398217579178</v>
       </c>
       <c r="AD2" t="n">
-        <v>124829.9348795941</v>
+        <v>168495.1309800101</v>
       </c>
       <c r="AE2" t="n">
-        <v>170797.824010241</v>
+        <v>230542.4716872955</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.58857561724449e-06</v>
+        <v>5.848216035232246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.68287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>154497.1194030026</v>
+        <v>208539.8217579178</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.8475099892184</v>
+        <v>177.2481473307522</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.8725563363307</v>
+        <v>242.5187348142027</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.1331404334148</v>
+        <v>219.3730871407876</v>
       </c>
       <c r="AD2" t="n">
-        <v>135847.5099892184</v>
+        <v>177248.1473307522</v>
       </c>
       <c r="AE2" t="n">
-        <v>185872.5563363307</v>
+        <v>242518.7348142027</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.59855764443387e-06</v>
+        <v>5.316439988739538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>168133.1404334148</v>
+        <v>219373.0871407876</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.5520584787722</v>
+        <v>144.7408410356565</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.6304477400808</v>
+        <v>198.0408042201366</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.063612025988</v>
+        <v>179.1400678174373</v>
       </c>
       <c r="AD3" t="n">
-        <v>111552.0584787722</v>
+        <v>144740.8410356565</v>
       </c>
       <c r="AE3" t="n">
-        <v>152630.4477400808</v>
+        <v>198040.8042201366</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.120748441091681e-06</v>
+        <v>6.087914648148558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>138063.6120259881</v>
+        <v>179140.0678174373</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.4080685074542</v>
+        <v>224.9677313649663</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.5787666078191</v>
+        <v>307.8107749292489</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.7593194088404</v>
+        <v>278.4337465852284</v>
       </c>
       <c r="AD2" t="n">
-        <v>182408.0685074542</v>
+        <v>224967.7313649663</v>
       </c>
       <c r="AE2" t="n">
-        <v>249578.7666078191</v>
+        <v>307810.7749292488</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.013112856248502e-06</v>
+        <v>4.375549130436913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.25462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>225759.3194088404</v>
+        <v>278433.7465852284</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.1855599899453</v>
+        <v>152.3014913527714</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.7066971570959</v>
+        <v>208.3856195363591</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.2736369372421</v>
+        <v>188.4975884789223</v>
       </c>
       <c r="AD3" t="n">
-        <v>118185.5599899453</v>
+        <v>152301.4913527714</v>
       </c>
       <c r="AE3" t="n">
-        <v>161706.6971570959</v>
+        <v>208385.6195363591</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.968749184646619e-06</v>
+        <v>5.763294596745941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.783564814814814</v>
       </c>
       <c r="AH3" t="n">
-        <v>146273.6369372421</v>
+        <v>188497.5884789223</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.5379073383206</v>
+        <v>151.6538387011468</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.820550226725</v>
+        <v>207.4994726059882</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.4720626261905</v>
+        <v>187.6960141678707</v>
       </c>
       <c r="AD4" t="n">
-        <v>117537.9073383206</v>
+        <v>151653.8387011467</v>
       </c>
       <c r="AE4" t="n">
-        <v>160820.550226725</v>
+        <v>207499.4726059882</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.996826306287541e-06</v>
+        <v>5.804067322840928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.731481481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>145472.0626261905</v>
+        <v>187696.0141678707</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.1293803682256</v>
+        <v>192.8536873054811</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.8359326423316</v>
+        <v>263.8709230754502</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.1456260884606</v>
+        <v>238.6874525223728</v>
       </c>
       <c r="AD2" t="n">
-        <v>143129.3803682256</v>
+        <v>192853.6873054811</v>
       </c>
       <c r="AE2" t="n">
-        <v>195835.9326423316</v>
+        <v>263870.9230754502</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.062605680155415e-06</v>
+        <v>5.105181201707247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>177145.6260884606</v>
+        <v>238687.4525223728</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.969521022518</v>
+        <v>144.6544335797604</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.5698825264668</v>
+        <v>197.9225777269517</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.8179498783758</v>
+        <v>179.03312469483</v>
       </c>
       <c r="AD2" t="n">
-        <v>112969.521022518</v>
+        <v>144654.4335797604</v>
       </c>
       <c r="AE2" t="n">
-        <v>154569.8825264668</v>
+        <v>197922.5777269517</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.194752392988427e-06</v>
+        <v>6.38402144337263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>139817.9498783758</v>
+        <v>179033.12469483</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.660706558442</v>
+        <v>154.2403398245457</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.461546004757</v>
+        <v>211.0384375513971</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.5746896843562</v>
+        <v>190.8972252658594</v>
       </c>
       <c r="AD2" t="n">
-        <v>121660.706558442</v>
+        <v>154240.3398245457</v>
       </c>
       <c r="AE2" t="n">
-        <v>166461.546004757</v>
+        <v>211038.4375513971</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.99099010268286e-06</v>
+        <v>5.958191804028616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.206018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>150574.6896843562</v>
+        <v>190897.2252658594</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.3545093232751</v>
+        <v>141.0193939353994</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.2554199196191</v>
+        <v>192.9489561189084</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.1061307203197</v>
+        <v>174.5341785525351</v>
       </c>
       <c r="AD3" t="n">
-        <v>108354.5093232751</v>
+        <v>141019.3939353994</v>
       </c>
       <c r="AE3" t="n">
-        <v>148255.4199196191</v>
+        <v>192948.9561189084</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.189939646178014e-06</v>
+        <v>6.255205705083198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.818287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>134106.1307203197</v>
+        <v>174534.178552535</v>
       </c>
     </row>
   </sheetData>
